--- a/tables/htru2_basic32_5.xlsx
+++ b/tables/htru2_basic32_5.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C8" t="n">
-        <v>83.09999999999999</v>
+        <v>61.2</v>
       </c>
       <c r="D8" t="n">
-        <v>87.59999999999999</v>
+        <v>61.5</v>
       </c>
       <c r="E8" t="n">
-        <v>90.40000000000001</v>
+        <v>53.3</v>
       </c>
       <c r="F8" t="n">
-        <v>81.3</v>
+        <v>6.800000000000002</v>
       </c>
       <c r="G8" t="n">
         <v>2.6</v>
@@ -712,7 +712,7 @@
         <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
       <c r="J8" t="n">
         <v>0.1</v>
@@ -721,19 +721,19 @@
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>61.2</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>61.5</v>
+        <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>53.3</v>
+        <v>45</v>
       </c>
       <c r="F9" t="n">
-        <v>6.800000000000002</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>2.6</v>
@@ -742,16 +742,16 @@
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>4.4</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>100</v>
@@ -760,7 +760,7 @@
         <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>45</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="J10" t="n">
         <v>0.2</v>
@@ -781,7 +781,7 @@
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>100</v>
@@ -790,7 +790,7 @@
         <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>95.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -809,21 +809,25 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>boundary</t>
+        </is>
+      </c>
       <c r="B12" s="1" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>100</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>93.8</v>
+        <v>89</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G12" t="n">
         <v>2.6</v>
@@ -832,126 +836,126 @@
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>1.7</v>
+        <v>5.1</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>boundary</t>
+          <t>cw2</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>90.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="D13" t="n">
-        <v>98.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E13" t="n">
-        <v>89</v>
+        <v>98.2</v>
       </c>
       <c r="F13" t="n">
-        <v>54</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="I13" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>cw2</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>72.39999999999998</v>
+      </c>
+      <c r="D14" t="n">
+        <v>72.39999999999998</v>
+      </c>
+      <c r="E14" t="n">
+        <v>50</v>
+      </c>
+      <c r="F14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>100</v>
-      </c>
-      <c r="E14" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>78.90000000000001</v>
-      </c>
       <c r="G14" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H14" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>72.39999999999998</v>
+        <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>72.39999999999998</v>
+        <v>100</v>
       </c>
       <c r="E15" t="n">
-        <v>50</v>
+        <v>36.7</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="I15" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="J15" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>deepfool</t>
+        </is>
+      </c>
       <c r="B16" s="1" t="n">
-        <v>10</v>
+        <v>1e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>100</v>
+        <v>96.7</v>
       </c>
       <c r="D16" t="n">
-        <v>100</v>
+        <v>97.8</v>
       </c>
       <c r="E16" t="n">
-        <v>36.7</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G16" t="n">
         <v>3.6</v>
@@ -960,32 +964,32 @@
         <v>4.6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>deepfool</t>
+          <t>fgsm</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>1e-06</v>
+        <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>96.7</v>
+        <v>96.5</v>
       </c>
       <c r="D17" t="n">
-        <v>97.8</v>
+        <v>99.3</v>
       </c>
       <c r="E17" t="n">
-        <v>80.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3</v>
+        <v>95.3</v>
       </c>
       <c r="G17" t="n">
         <v>3.6</v>
@@ -994,32 +998,28 @@
         <v>4.6</v>
       </c>
       <c r="I17" t="n">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>fgsm</t>
-        </is>
-      </c>
+      <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="C18" t="n">
-        <v>96.5</v>
+        <v>98.3</v>
       </c>
       <c r="D18" t="n">
-        <v>99.3</v>
+        <v>98.3</v>
       </c>
       <c r="E18" t="n">
-        <v>97.90000000000001</v>
+        <v>44.2</v>
       </c>
       <c r="F18" t="n">
-        <v>95.3</v>
+        <v>7.9</v>
       </c>
       <c r="G18" t="n">
         <v>3.6</v>
@@ -1028,46 +1028,46 @@
         <v>4.6</v>
       </c>
       <c r="I18" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>100</v>
+      </c>
+      <c r="D19" t="n">
+        <v>100</v>
+      </c>
+      <c r="E19" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J19" t="n">
         <v>0.2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="E19" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="F19" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>100</v>
@@ -1076,10 +1076,10 @@
         <v>100</v>
       </c>
       <c r="E20" t="n">
-        <v>14.7</v>
+        <v>83.2</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>2.6</v>
@@ -1088,39 +1088,9 @@
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>100</v>
-      </c>
-      <c r="D21" t="n">
-        <v>100</v>
-      </c>
-      <c r="E21" t="n">
-        <v>83.2</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J21" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1129,9 +1099,9 @@
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A17:A20"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/tables/htru2_basic32_5.xlsx
+++ b/tables/htru2_basic32_5.xlsx
@@ -697,7 +697,7 @@
         <v>61.2</v>
       </c>
       <c r="D8" t="n">
-        <v>61.5</v>
+        <v>61.2</v>
       </c>
       <c r="E8" t="n">
         <v>53.3</v>
@@ -818,10 +818,10 @@
         <v>0.3</v>
       </c>
       <c r="C12" t="n">
-        <v>90.90000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="E12" t="n">
         <v>89</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="D13" t="n">
         <v>100</v>
@@ -949,7 +949,7 @@
         <v>96.7</v>
       </c>
       <c r="D16" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="E16" t="n">
         <v>80.40000000000001</v>
@@ -980,7 +980,7 @@
         <v>0.05</v>
       </c>
       <c r="C17" t="n">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D17" t="n">
         <v>99.3</v>
